--- a/prioritization/rankings-of-compiled-circuits.xlsx
+++ b/prioritization/rankings-of-compiled-circuits.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariesalm/Documents/PlanQK/Code/nisq-analyzer-content/prioritization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217EBB8C-6132-F84F-AB2E-0985371D3815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E4F028-4EF6-A140-93CE-41C52D7A719A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="5720" windowWidth="33600" windowHeight="20500" xr2:uid="{9395AFE9-CE9B-DA4A-ACC0-E0A9EA3F737D}"/>
+    <workbookView xWindow="8740" yWindow="29300" windowWidth="33600" windowHeight="20500" xr2:uid="{9395AFE9-CE9B-DA4A-ACC0-E0A9EA3F737D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
   <si>
     <t>qpu name</t>
   </si>
@@ -160,6 +160,75 @@
   </si>
   <si>
     <t>Considering Queue &amp; Circuit &amp; QPU</t>
+  </si>
+  <si>
+    <t>number of shots</t>
+  </si>
+  <si>
+    <t>execution result</t>
+  </si>
+  <si>
+    <t>{00110=8192}</t>
+  </si>
+  <si>
+    <t>{00000=160, 00001=2, 00010=527, 00011=6, 00100=489, 00101=5, 00110=6847, 00111=68, 01000=2, 01010=5, 01011=1, 01100=10, 01110=70}</t>
+  </si>
+  <si>
+    <t>{00000=112, 00001=2, 00010=514, 00011=4, 00100=560, 00101=12, 00110=6738, 00111=60, 01000=6, 01010=11, 01011=1, 01100=12, 01110=159, 01111=1}</t>
+  </si>
+  <si>
+    <t>{00000=105, 00001=2, 00010=372, 00011=15, 00100=285, 00101=4, 00110=6728, 00111=208, 01000=4, 01001=1, 01010=29, 01011=2, 01100=14, 01110=373, 01111=50}</t>
+  </si>
+  <si>
+    <t>{00000=115, 00001=12, 00010=388, 00011=24, 00100=292, 00101=25, 00110=6714, 00111=418, 01000=4, 01010=9, 01011=2, 01100=7, 01101=1, 01110=148, 01111=33}</t>
+  </si>
+  <si>
+    <t>{00000=186, 00001=5, 00010=1075, 00011=9, 00100=390, 00101=15, 00110=6299, 00111=71, 01000=1, 01010=16, 01100=15, 01110=106, 01111=4}</t>
+  </si>
+  <si>
+    <t>{00000=125, 00001=10, 00010=465, 00011=26, 00100=1136, 00101=8, 00110=6239, 00111=64, 01000=3, 01001=1, 01010=18, 01011=1, 01100=15, 01110=78, 01111=3}</t>
+  </si>
+  <si>
+    <t>{11=8192}</t>
+  </si>
+  <si>
+    <t>{00=143, 01=434, 10=452, 11=7163}</t>
+  </si>
+  <si>
+    <t>{00=153, 01=603, 10=501, 11=6935}</t>
+  </si>
+  <si>
+    <t>{00=208, 01=491, 10=628, 11=6865}</t>
+  </si>
+  <si>
+    <t>{00=262, 01=540, 10=641, 11=6749}</t>
+  </si>
+  <si>
+    <t>{00=400, 01=670, 10=478, 11=6644}</t>
+  </si>
+  <si>
+    <t>{00=381, 01=600, 10=1013, 11=6198}</t>
+  </si>
+  <si>
+    <t>{000=4035, 100=4157}</t>
+  </si>
+  <si>
+    <t>{000=4166, 001=20, 010=48, 011=1, 100=3890, 101=31, 110=35, 111=1}</t>
+  </si>
+  <si>
+    <t>{000=4113, 001=60, 010=43, 011=2, 100=3884, 101=59, 110=28, 111=3}</t>
+  </si>
+  <si>
+    <t>{000=4216, 001=39, 010=32, 100=3850, 101=31, 110=24}</t>
+  </si>
+  <si>
+    <t>{000=3912, 001=65, 010=98, 011=2, 100=3926, 101=86, 110=100, 111=3}</t>
+  </si>
+  <si>
+    <t>{000=4161, 001=143, 010=98, 011=42, 100=3508, 101=121, 110=86, 111=33}</t>
+  </si>
+  <si>
+    <t>{000=3611, 001=356, 010=234, 011=60, 100=3371, 101=308, 110=207, 111=45}</t>
   </si>
 </sst>
 </file>
@@ -297,21 +366,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AAABF69-2820-264A-A1C3-21B3D6E22E66}" name="Tabelle1" displayName="Tabelle1" ref="A1:AC22" totalsRowShown="0">
-  <autoFilter ref="A1:AC22" xr:uid="{5AAABF69-2820-264A-A1C3-21B3D6E22E66}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="grover-sat"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:AC22">
-    <sortCondition descending="1" ref="D1:D22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AAABF69-2820-264A-A1C3-21B3D6E22E66}" name="Tabelle1" displayName="Tabelle1" ref="A1:AE22" totalsRowShown="0">
+  <autoFilter ref="A1:AE22" xr:uid="{5AAABF69-2820-264A-A1C3-21B3D6E22E66}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:AE22">
+    <sortCondition descending="1" ref="F1:F22"/>
   </sortState>
-  <tableColumns count="29">
+  <tableColumns count="31">
     <tableColumn id="21" xr3:uid="{6E317F9E-9C73-7F4E-8EF8-D98391525A93}" name="Circuit" dataDxfId="18"/>
     <tableColumn id="1" xr3:uid="{1D815CE8-3C8C-C24B-B932-69ACCC36222D}" name="qpu name"/>
     <tableColumn id="2" xr3:uid="{57E1C5FD-0C4F-C94D-B6A5-49B8D607426B}" name="compiler"/>
+    <tableColumn id="20" xr3:uid="{793DE87A-1981-174A-9469-27D41A14B3DF}" name="execution result"/>
+    <tableColumn id="23" xr3:uid="{0FDD38E9-3901-384C-93E6-AE0933D209E4}" name="number of shots"/>
     <tableColumn id="4" xr3:uid="{0E6864C2-CECA-0E4B-8588-8A9742BE561C}" name="histo inter"/>
     <tableColumn id="5" xr3:uid="{F65E192A-7D0E-1C4E-A0CE-3E91BB50AD3B}" name="width"/>
     <tableColumn id="6" xr3:uid="{AD5B8DF0-E404-8E46-A5FA-E6CFB642CC6B}" name="depth"/>
@@ -640,45 +705,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89399786-9AC2-B94E-9E81-33FE648DBE14}">
-  <dimension ref="A1:AI40"/>
+  <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC29" sqref="AC29"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="10" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" customWidth="1"/>
-    <col min="15" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="19" width="10.83203125" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.6640625" customWidth="1"/>
-    <col min="23" max="23" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.83203125" customWidth="1"/>
-    <col min="25" max="25" width="12.83203125" customWidth="1"/>
-    <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17" customWidth="1"/>
-    <col min="28" max="28" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.1640625" customWidth="1"/>
-    <col min="30" max="30" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="17" max="18" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" customWidth="1"/>
+    <col min="20" max="21" width="10.83203125" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.6640625" customWidth="1"/>
+    <col min="25" max="25" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.83203125" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" customWidth="1"/>
+    <col min="28" max="28" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17" customWidth="1"/>
+    <col min="30" max="30" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.1640625" customWidth="1"/>
+    <col min="32" max="32" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -689,85 +756,91 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -777,35 +850,35 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2">
+        <v>8192</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>10</v>
       </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
       <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
         <v>3</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -816,47 +889,53 @@
       <c r="P2" s="1">
         <v>0</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
         <v>1</v>
       </c>
-      <c r="U2" s="1">
+      <c r="W2" s="1">
         <v>0.85855822582813002</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0.55185905000000002</v>
       </c>
       <c r="X2" s="1">
         <v>1</v>
       </c>
       <c r="Y2" s="1">
+        <v>0.55185905000000002</v>
+      </c>
+      <c r="Z2" s="1">
         <v>1</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0.83333510522753296</v>
       </c>
       <c r="AA2" s="1">
         <v>1</v>
       </c>
       <c r="AB2" s="1">
-        <v>0.477489419999999</v>
+        <v>0.83333510522753296</v>
       </c>
       <c r="AC2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD2" s="1">
+        <v>0.477489419999999</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -866,86 +945,92 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>8192</v>
+      </c>
+      <c r="F3">
         <v>0.9674072265625</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
         <v>11</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
         <v>13</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>8</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="1">
         <v>1.9117275557639901E-4</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
         <v>7.54830827001825E-3</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>26.6666666666666</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>350.222222222222</v>
       </c>
-      <c r="P3" s="1">
+      <c r="R3" s="1">
         <v>2.7619999999999999E-2</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="S3" s="1">
         <v>195.857833948771</v>
       </c>
-      <c r="R3" s="1">
+      <c r="T3" s="1">
         <v>59.112488483942499</v>
       </c>
-      <c r="S3">
-        <v>5</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3" s="1">
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="1">
         <v>0.67774363708042995</v>
       </c>
-      <c r="V3" s="1">
-        <v>2</v>
-      </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1">
         <v>0.20808868999999899</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Z3" s="1">
         <v>4</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="AA3" s="1">
         <v>4</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AB3" s="1">
         <v>0.55623222680316398</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AC3" s="1">
         <v>3</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AD3" s="1">
         <v>6.4535819999999897E-2</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AE3" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -955,86 +1040,92 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>8192</v>
+      </c>
+      <c r="F4">
         <v>0.9666748046875</v>
       </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
         <v>11</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
         <v>13</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>8</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>2.5585539119985E-4</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>1.0499084943250201E-2</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>26.6666666666666</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>387.55555555555497</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>2.792E-2</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>93.937568793623399</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>103.47108725986899</v>
       </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>3</v>
       </c>
-      <c r="U4" s="1">
+      <c r="W4" s="1">
         <v>0.66537681028802598</v>
       </c>
-      <c r="V4" s="1">
+      <c r="X4" s="1">
         <v>3</v>
       </c>
-      <c r="W4" s="1">
+      <c r="Y4" s="1">
         <v>4.63143899999999E-2</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Z4" s="1">
         <v>4</v>
       </c>
-      <c r="Y4" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="1">
+      <c r="AA4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="1">
         <v>0.67793385828892505</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>4.0072969999999902E-2</v>
       </c>
       <c r="AC4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD4" s="1">
+        <v>4.0072969999999902E-2</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1044,86 +1135,92 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5">
+        <v>8192</v>
+      </c>
+      <c r="F5">
         <v>0.9625244140625</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
         <v>11</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
         <v>13</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>8</v>
       </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="1">
         <v>8.3408038448774997E-4</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <v>2.4837884811144999E-2</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>26.6666666666666</v>
       </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="1">
         <v>277.33333333333297</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="1">
         <v>5.6340000000000001E-2</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <v>100.735593898467</v>
       </c>
-      <c r="R5" s="1">
+      <c r="T5" s="1">
         <v>106.76605697198799</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>1</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>4</v>
       </c>
-      <c r="U5" s="1">
+      <c r="W5" s="1">
         <v>0.57421164732020202</v>
-      </c>
-      <c r="V5" s="1">
-        <v>4</v>
-      </c>
-      <c r="W5" s="1">
-        <v>3.3268099999999898E-2</v>
       </c>
       <c r="X5" s="1">
         <v>4</v>
       </c>
       <c r="Y5" s="1">
+        <v>3.3268099999999898E-2</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="1">
         <v>3</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AB5" s="1">
         <v>0.62080795975709901</v>
       </c>
-      <c r="AA5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="1">
+      <c r="AC5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="1">
         <v>0.14429523</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AE5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1133,86 +1230,92 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6">
+        <v>8192</v>
+      </c>
+      <c r="F6">
         <v>0.956787109375</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>23</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>9</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>36</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>24</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>9</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <v>1.9117275557639901E-4</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="1">
         <v>7.54830827001825E-3</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>26.6666666666666</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <v>350.222222222222</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
         <v>2.7619999999999999E-2</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>195.857833948771</v>
       </c>
-      <c r="R6" s="1">
+      <c r="T6" s="1">
         <v>59.112488483942499</v>
       </c>
-      <c r="S6">
-        <v>5</v>
-      </c>
-      <c r="T6">
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
         <v>6</v>
       </c>
-      <c r="U6" s="1">
+      <c r="W6" s="1">
         <v>0.32073972381372601</v>
       </c>
-      <c r="V6" s="1">
-        <v>5</v>
-      </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="1">
         <v>-0.34898885999999901</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Z6" s="1">
         <v>6</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0.28247333153929699</v>
       </c>
       <c r="AA6" s="1">
         <v>7</v>
       </c>
       <c r="AB6" s="1">
+        <v>0.28247333153929699</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="1">
         <v>-0.41746877999999998</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AE6" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1222,86 +1325,92 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7">
+        <v>8192</v>
+      </c>
+      <c r="F7">
         <v>0.9207763671875</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
         <v>16</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>27</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>15</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>9</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>2.5585539119985E-4</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>1.0499084943250201E-2</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>26.6666666666666</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>387.55555555555497</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>2.792E-2</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>93.937568793623399</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>103.47108725986899</v>
       </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>5</v>
-      </c>
-      <c r="U7" s="1">
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7" s="1">
         <v>0.43060005369087301</v>
-      </c>
-      <c r="V7" s="1">
-        <v>6</v>
-      </c>
-      <c r="W7" s="1">
-        <v>-0.42204823999999902</v>
       </c>
       <c r="X7" s="1">
         <v>6</v>
       </c>
       <c r="Y7" s="1">
-        <v>5</v>
+        <v>-0.42204823999999902</v>
       </c>
       <c r="Z7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="1">
         <v>0.492882086805153</v>
       </c>
-      <c r="AA7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="1">
+      <c r="AC7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="1">
         <v>-0.36517213999999998</v>
       </c>
-      <c r="AC7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1311,86 +1420,92 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>8192</v>
+      </c>
+      <c r="F8">
         <v>0.852294921875</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>11</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>30</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>13</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>14</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <v>8.3408038448774997E-4</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1">
         <v>2.4837884811144999E-2</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>26.6666666666666</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <v>277.33333333333297</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R8" s="1">
         <v>5.6340000000000001E-2</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="S8" s="1">
         <v>100.735593898467</v>
       </c>
-      <c r="R8" s="1">
+      <c r="T8" s="1">
         <v>106.76605697198799</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>1</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>7</v>
       </c>
-      <c r="U8" s="1">
+      <c r="W8" s="1">
         <v>0.200897315803205</v>
-      </c>
-      <c r="V8" s="1">
-        <v>7</v>
-      </c>
-      <c r="W8" s="1">
-        <v>-0.57142855399999903</v>
       </c>
       <c r="X8" s="1">
         <v>7</v>
       </c>
       <c r="Y8" s="1">
-        <v>6</v>
+        <v>-0.57142855399999903</v>
       </c>
       <c r="Z8" s="1">
-        <v>0.38675590598446402</v>
+        <v>7</v>
       </c>
       <c r="AA8" s="1">
         <v>6</v>
       </c>
       <c r="AB8" s="1">
+        <v>0.38675590598446402</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="1">
         <v>-0.37891123999999998</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AE8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1400,35 +1515,35 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <v>8192</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>14</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>21</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>13</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>6</v>
       </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
+      <c r="M9">
+        <v>2</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
@@ -1439,47 +1554,53 @@
       <c r="P9" s="1">
         <v>0</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
         <v>1</v>
       </c>
-      <c r="U9" s="1">
+      <c r="W9" s="1">
         <v>1</v>
-      </c>
-      <c r="V9" s="1">
-        <v>1</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0.73972599999999999</v>
       </c>
       <c r="X9" s="1">
         <v>1</v>
       </c>
       <c r="Y9" s="1">
+        <v>0.73972599999999999</v>
+      </c>
+      <c r="Z9" s="1">
         <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>0.87600401945989403</v>
       </c>
       <c r="AA9" s="1">
         <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.650602393</v>
+        <v>0.87600401945989403</v>
       </c>
       <c r="AC9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9">
+        <v>0.650602393</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1489,86 +1610,92 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>8192</v>
+      </c>
+      <c r="F10">
         <v>0.8743896484375</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>27</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>45</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>34</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>9</v>
       </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
         <v>2.5585539119985E-4</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>1.0499084943250201E-2</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>26.6666666666666</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>387.55555555555497</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>2.792E-2</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>93.937568793623399</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>103.47108725986899</v>
       </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
-      <c r="T10">
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
         <v>3</v>
       </c>
-      <c r="U10" s="1">
+      <c r="W10" s="1">
         <v>0.446398894270361</v>
       </c>
-      <c r="V10" s="1">
+      <c r="X10" s="1">
         <v>3</v>
       </c>
-      <c r="W10" s="1">
+      <c r="Y10" s="1">
         <v>-0.106327449999999</v>
       </c>
-      <c r="X10" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z10">
+      <c r="Z10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB10">
         <v>0.51863061243520003</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB10">
-        <v>-9.3516929999999998E-2</v>
       </c>
       <c r="AC10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10">
+        <v>-9.3516929999999998E-2</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1578,86 +1705,92 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>8192</v>
+      </c>
+      <c r="F11">
         <v>0.8465576171875</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>27</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>9</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>45</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>34</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>9</v>
       </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
         <v>1.9117275557639901E-4</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="1">
         <v>7.54830827001825E-3</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="1">
         <v>26.6666666666666</v>
       </c>
-      <c r="O11" s="1">
+      <c r="Q11" s="1">
         <v>350.222222222222</v>
       </c>
-      <c r="P11" s="1">
+      <c r="R11" s="1">
         <v>2.7619999999999999E-2</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="S11" s="1">
         <v>195.857833948771</v>
       </c>
-      <c r="R11" s="1">
+      <c r="T11" s="1">
         <v>59.112488483942499</v>
       </c>
-      <c r="S11">
-        <v>5</v>
-      </c>
-      <c r="T11">
-        <v>2</v>
-      </c>
-      <c r="U11" s="1">
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11" s="1">
         <v>0.47129739176149799</v>
       </c>
-      <c r="V11" s="1">
-        <v>2</v>
-      </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="1">
         <v>5.5446819999999897E-2</v>
       </c>
-      <c r="X11" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="1">
         <v>6</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>0.38007496655142398</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AC11" s="1">
         <v>3</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>-5.4503709999999997E-2</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AE11" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1667,86 +1800,92 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12">
+        <v>8192</v>
+      </c>
+      <c r="F12">
         <v>0.8380126953125</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>27</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>9</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>45</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>34</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>9</v>
       </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1">
         <v>8.3408038448774997E-4</v>
       </c>
-      <c r="M12" s="1">
+      <c r="O12" s="1">
         <v>2.4837884811144999E-2</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12" s="1">
         <v>26.6666666666666</v>
       </c>
-      <c r="O12" s="1">
+      <c r="Q12" s="1">
         <v>277.33333333333297</v>
       </c>
-      <c r="P12" s="1">
+      <c r="R12" s="1">
         <v>5.6340000000000001E-2</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="S12" s="1">
         <v>100.735593898467</v>
       </c>
-      <c r="R12" s="1">
+      <c r="T12" s="1">
         <v>106.76605697198799</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>1</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>6</v>
       </c>
-      <c r="U12" s="1">
+      <c r="W12" s="1">
         <v>0.293849805442013</v>
       </c>
-      <c r="V12" s="1">
+      <c r="X12" s="1">
         <v>4</v>
       </c>
-      <c r="W12" s="1">
+      <c r="Y12" s="1">
         <v>-0.1193738</v>
       </c>
-      <c r="X12" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="1">
         <v>3</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>0.46678783620673298</v>
       </c>
-      <c r="AA12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB12">
+      <c r="AC12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD12">
         <v>-1.7211500000000001E-3</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AE12" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1756,86 +1895,92 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>8192</v>
+      </c>
+      <c r="F13">
         <v>0.8238525390625</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>44</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>13</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>64</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>49</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>13</v>
       </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
         <v>2.5585539119985E-4</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>1.0499084943250201E-2</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>26.6666666666666</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>387.55555555555497</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>2.792E-2</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>93.937568793623399</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>103.47108725986899</v>
       </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>5</v>
-      </c>
-      <c r="U13" s="1">
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13" s="1">
         <v>0.304121732011637</v>
-      </c>
-      <c r="V13" s="1">
-        <v>7</v>
-      </c>
-      <c r="W13" s="1">
-        <v>-0.59556426600000001</v>
       </c>
       <c r="X13" s="1">
         <v>7</v>
       </c>
       <c r="Y13" s="1">
+        <v>-0.59556426600000001</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="1">
         <v>4</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>0.41166981954996401</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB13">
-        <v>-0.52380952999999997</v>
       </c>
       <c r="AC13" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13">
+        <v>-0.52380952999999997</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1845,86 +1990,92 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>8192</v>
+      </c>
+      <c r="F14">
         <v>0.81103515625</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>3</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>30</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>13</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>48</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>33</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>13</v>
       </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1">
         <v>1.9117275557639901E-4</v>
       </c>
-      <c r="M14" s="1">
+      <c r="O14" s="1">
         <v>7.54830827001825E-3</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="1">
         <v>26.6666666666666</v>
       </c>
-      <c r="O14" s="1">
+      <c r="Q14" s="1">
         <v>350.222222222222</v>
       </c>
-      <c r="P14" s="1">
+      <c r="R14" s="1">
         <v>2.7619999999999999E-2</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="S14" s="1">
         <v>195.857833948771</v>
       </c>
-      <c r="R14" s="1">
+      <c r="T14" s="1">
         <v>59.112488483942499</v>
       </c>
-      <c r="S14">
-        <v>5</v>
-      </c>
-      <c r="T14">
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
         <v>4</v>
       </c>
-      <c r="U14" s="1">
+      <c r="W14" s="1">
         <v>0.40915174189664599</v>
       </c>
-      <c r="V14" s="1">
-        <v>5</v>
-      </c>
-      <c r="W14" s="1">
+      <c r="X14" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="1">
         <v>-0.18721462999999999</v>
       </c>
-      <c r="X14" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="1">
         <v>7</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>0.33827635819211699</v>
       </c>
-      <c r="AA14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB14">
+      <c r="AC14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD14">
         <v>-0.26792886999999999</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AE14" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1934,86 +2085,92 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15">
+        <v>8192</v>
+      </c>
+      <c r="F15">
         <v>0.756591796875</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>3</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>42</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>13</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>61</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>46</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>13</v>
       </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1">
         <v>8.3408038448774997E-4</v>
       </c>
-      <c r="M15" s="1">
+      <c r="O15" s="1">
         <v>2.4837884811144999E-2</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="1">
         <v>26.6666666666666</v>
       </c>
-      <c r="O15" s="1">
+      <c r="Q15" s="1">
         <v>277.33333333333297</v>
       </c>
-      <c r="P15" s="1">
+      <c r="R15" s="1">
         <v>5.6340000000000001E-2</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="S15" s="1">
         <v>100.735593898467</v>
       </c>
-      <c r="R15" s="1">
+      <c r="T15" s="1">
         <v>106.76605697198799</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>1</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>7</v>
       </c>
-      <c r="U15" s="1">
+      <c r="W15" s="1">
         <v>6.7217700537465702E-2</v>
       </c>
-      <c r="V15" s="1">
+      <c r="X15" s="1">
         <v>6</v>
       </c>
-      <c r="W15" s="1">
+      <c r="Y15" s="1">
         <v>-0.52641879000000003</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Z15" s="1">
         <v>7</v>
       </c>
-      <c r="Y15" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z15">
+      <c r="AA15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB15">
         <v>0.39387746486467201</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AC15" s="1">
         <v>6</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>-0.35972455999999903</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AE15" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -2023,35 +2180,35 @@
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>8192</v>
+      </c>
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
       <c r="G16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
         <v>16</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>10</v>
       </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
         <v>4</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
@@ -2062,47 +2219,53 @@
       <c r="P16" s="1">
         <v>0</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
         <v>1</v>
       </c>
-      <c r="U16" s="1">
+      <c r="W16" s="1">
         <v>1</v>
-      </c>
-      <c r="V16" s="1">
-        <v>1</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0.59295500000000001</v>
       </c>
       <c r="X16" s="1">
         <v>1</v>
       </c>
       <c r="Y16" s="1">
+        <v>0.59295500000000001</v>
+      </c>
+      <c r="Z16" s="1">
         <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>0.85927877936045705</v>
       </c>
       <c r="AA16" s="1">
         <v>1</v>
       </c>
       <c r="AB16">
-        <v>0.52151466299999905</v>
+        <v>0.85927877936045705</v>
       </c>
       <c r="AC16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD16">
+        <v>0.52151466299999905</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2112,86 +2275,92 @@
       <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>8192</v>
+      </c>
+      <c r="F17">
         <v>0.8358154296875</v>
       </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
         <v>9</v>
       </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
         <v>34</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>28</v>
       </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
         <v>4</v>
       </c>
-      <c r="L17" s="1">
+      <c r="N17" s="1">
         <v>8.3408038448774997E-4</v>
       </c>
-      <c r="M17" s="1">
+      <c r="O17" s="1">
         <v>2.4837884811144999E-2</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="1">
         <v>26.6666666666666</v>
       </c>
-      <c r="O17" s="1">
+      <c r="Q17" s="1">
         <v>277.33333333333297</v>
       </c>
-      <c r="P17" s="1">
+      <c r="R17" s="1">
         <v>5.6340000000000001E-2</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="S17" s="1">
         <v>100.735593898467</v>
       </c>
-      <c r="R17" s="1">
+      <c r="T17" s="1">
         <v>106.76605697198799</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>1</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>6</v>
       </c>
-      <c r="U17" s="1">
+      <c r="W17" s="1">
         <v>8.3400327973061794E-2</v>
       </c>
-      <c r="V17" s="1">
+      <c r="X17" s="1">
         <v>4</v>
       </c>
-      <c r="W17" s="1">
+      <c r="Y17" s="1">
         <v>-4.1095889999999899E-2</v>
       </c>
-      <c r="X17" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="1">
         <v>4</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>0.43966666858583697</v>
       </c>
-      <c r="AA17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB17">
+      <c r="AC17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD17">
         <v>6.7125660000000004E-2</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AE17" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -2201,86 +2370,92 @@
       <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>8192</v>
+      </c>
+      <c r="F18">
         <v>0.822509765625</v>
       </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
         <v>10</v>
       </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
         <v>36</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>30</v>
       </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
         <v>4</v>
       </c>
-      <c r="L18" s="1">
+      <c r="N18" s="1">
         <v>8.3408038448774997E-4</v>
       </c>
-      <c r="M18" s="1">
+      <c r="O18" s="1">
         <v>2.4837884811144999E-2</v>
       </c>
-      <c r="N18" s="1">
+      <c r="P18" s="1">
         <v>26.6666666666666</v>
       </c>
-      <c r="O18" s="1">
+      <c r="Q18" s="1">
         <v>277.33333333333297</v>
       </c>
-      <c r="P18" s="1">
+      <c r="R18" s="1">
         <v>5.6340000000000001E-2</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="S18" s="1">
         <v>100.735593898467</v>
       </c>
-      <c r="R18" s="1">
+      <c r="T18" s="1">
         <v>106.76605697198799</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>1</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>7</v>
       </c>
-      <c r="U18" s="1">
+      <c r="W18" s="1">
         <v>6.4620548168788899E-2</v>
-      </c>
-      <c r="V18" s="1">
-        <v>7</v>
-      </c>
-      <c r="W18" s="1">
-        <v>-0.32876709999999998</v>
       </c>
       <c r="X18" s="1">
         <v>7</v>
       </c>
       <c r="Y18" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z18">
+        <v>-0.32876709999999998</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB18">
         <v>0.43374318373993198</v>
       </c>
-      <c r="AA18" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB18">
+      <c r="AC18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD18">
         <v>-0.185886419999999</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AE18" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2290,86 +2465,92 @@
       <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>8192</v>
+      </c>
+      <c r="F19">
         <v>0.8212890625</v>
       </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
         <v>9</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
         <v>34</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>28</v>
       </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
         <v>4</v>
       </c>
-      <c r="L19" s="1">
+      <c r="N19" s="1">
         <v>1.9117275557639901E-4</v>
       </c>
-      <c r="M19" s="1">
+      <c r="O19" s="1">
         <v>7.54830827001825E-3</v>
       </c>
-      <c r="N19" s="1">
+      <c r="P19" s="1">
         <v>26.6666666666666</v>
       </c>
-      <c r="O19" s="1">
+      <c r="Q19" s="1">
         <v>350.222222222222</v>
       </c>
-      <c r="P19" s="1">
+      <c r="R19" s="1">
         <v>2.7619999999999999E-2</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="S19" s="1">
         <v>195.857833948771</v>
       </c>
-      <c r="R19" s="1">
+      <c r="T19" s="1">
         <v>59.112488483942499</v>
       </c>
-      <c r="S19">
-        <v>5</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-      <c r="U19" s="1">
+      <c r="U19">
+        <v>5</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19" s="1">
         <v>0.41586968613248498</v>
       </c>
-      <c r="V19" s="1">
-        <v>2</v>
-      </c>
-      <c r="W19" s="1">
+      <c r="X19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="1">
         <v>0.13372473000000001</v>
       </c>
-      <c r="X19" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="1">
         <v>6</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>0.32607447781225901</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AC19" s="1">
         <v>3</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>1.434303E-2</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AE19" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -2379,86 +2560,92 @@
       <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20">
+        <v>8192</v>
+      </c>
+      <c r="F20">
         <v>0.819580078125</v>
       </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
         <v>10</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
         <v>36</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>30</v>
       </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
         <v>4</v>
       </c>
-      <c r="L20" s="1">
+      <c r="N20" s="1">
         <v>1.9117275557639901E-4</v>
       </c>
-      <c r="M20" s="1">
+      <c r="O20" s="1">
         <v>7.54830827001825E-3</v>
       </c>
-      <c r="N20" s="1">
+      <c r="P20" s="1">
         <v>26.6666666666666</v>
       </c>
-      <c r="O20" s="1">
+      <c r="Q20" s="1">
         <v>350.222222222222</v>
       </c>
-      <c r="P20" s="1">
+      <c r="R20" s="1">
         <v>2.7619999999999999E-2</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="S20" s="1">
         <v>195.857833948771</v>
       </c>
-      <c r="R20" s="1">
+      <c r="T20" s="1">
         <v>59.112488483942499</v>
       </c>
-      <c r="S20">
-        <v>5</v>
-      </c>
-      <c r="T20">
+      <c r="U20">
+        <v>5</v>
+      </c>
+      <c r="V20">
         <v>3</v>
       </c>
-      <c r="U20" s="1">
+      <c r="W20" s="1">
         <v>0.40460910129726302</v>
       </c>
-      <c r="V20" s="1">
-        <v>5</v>
-      </c>
-      <c r="W20" s="1">
+      <c r="X20" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="1">
         <v>-0.15394653</v>
       </c>
-      <c r="X20" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="1">
         <v>7</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>0.320543810095962</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AC20" s="1">
         <v>6</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>-0.23866896999999901</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AE20" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,86 +2655,92 @@
       <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21">
+        <v>8192</v>
+      </c>
+      <c r="F21">
         <v>0.7689208984375</v>
       </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
         <v>10</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
         <v>36</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>30</v>
       </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21">
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
         <v>4</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>2.5585539119985E-4</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>1.0499084943250201E-2</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>26.6666666666666</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>387.55555555555497</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>2.792E-2</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>93.937568793623399</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>103.47108725986899</v>
       </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>5</v>
-      </c>
-      <c r="U21" s="1">
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>5</v>
+      </c>
+      <c r="W21" s="1">
         <v>0.36931369813313297</v>
       </c>
-      <c r="V21" s="1">
+      <c r="X21" s="1">
         <v>6</v>
       </c>
-      <c r="W21" s="1">
+      <c r="Y21" s="1">
         <v>-0.31572081599999902</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Z21" s="1">
         <v>7</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="AA21" s="1">
         <v>3</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <v>0.48056389224347501</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB21">
-        <v>-0.27768212999999897</v>
       </c>
       <c r="AC21" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD21">
+        <v>-0.27768212999999897</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -2557,104 +2750,108 @@
       <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>8192</v>
+      </c>
+      <c r="F22">
         <v>0.7615966796875</v>
       </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
         <v>9</v>
       </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
         <v>34</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>28</v>
       </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22">
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
         <v>4</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>2.5585539119985E-4</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>1.0499084943250201E-2</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>26.6666666666666</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>387.55555555555497</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>2.792E-2</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>93.937568793623399</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>103.47108725986899</v>
       </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
         <v>4</v>
       </c>
-      <c r="U22" s="1">
+      <c r="W22" s="1">
         <v>0.37999014684372501</v>
       </c>
-      <c r="V22" s="1">
+      <c r="X22" s="1">
         <v>3</v>
       </c>
-      <c r="W22" s="1">
+      <c r="Y22" s="1">
         <v>-2.8049569999999899E-2</v>
       </c>
-      <c r="X22" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z22">
+      <c r="Z22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB22">
         <v>0.490140816292151</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AC22" s="1">
         <v>4</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <v>-2.46700799999999E-2</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AE22" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2668,22 +2865,20 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C26" s="3" t="s">
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
         <v>29</v>
       </c>
-      <c r="E27">
-        <v>50</v>
-      </c>
-      <c r="F27">
-        <v>50</v>
-      </c>
       <c r="G27">
         <v>50</v>
       </c>
@@ -2700,58 +2895,58 @@
         <v>50</v>
       </c>
       <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27">
+        <v>50</v>
+      </c>
+      <c r="N27">
         <v>0</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>0</v>
       </c>
-      <c r="N27">
-        <v>50</v>
-      </c>
-      <c r="O27">
+      <c r="P27">
+        <v>50</v>
+      </c>
+      <c r="Q27">
         <v>100</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>0</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>20</v>
       </c>
-      <c r="R27">
-        <v>50</v>
-      </c>
-      <c r="S27">
+      <c r="T27">
+        <v>50</v>
+      </c>
+      <c r="U27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
         <v>28</v>
       </c>
-      <c r="E28">
-        <v>50</v>
-      </c>
-      <c r="F28">
-        <v>80</v>
-      </c>
       <c r="G28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H28">
         <v>80</v>
       </c>
       <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28">
         <v>80</v>
       </c>
-      <c r="J28">
+      <c r="K28">
+        <v>80</v>
+      </c>
+      <c r="L28">
         <v>100</v>
       </c>
-      <c r="K28">
-        <v>50</v>
-      </c>
-      <c r="L28">
-        <v>50</v>
-      </c>
       <c r="M28">
         <v>50</v>
       </c>
@@ -2759,33 +2954,33 @@
         <v>50</v>
       </c>
       <c r="O28">
+        <v>50</v>
+      </c>
+      <c r="P28">
+        <v>50</v>
+      </c>
+      <c r="Q28">
         <v>0</v>
       </c>
-      <c r="P28">
-        <v>50</v>
-      </c>
-      <c r="Q28">
+      <c r="R28">
+        <v>50</v>
+      </c>
+      <c r="S28">
         <v>20</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>0</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="E29">
-        <v>50</v>
-      </c>
-      <c r="F29">
-        <v>80</v>
-      </c>
       <c r="G29">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H29">
         <v>80</v>
@@ -2794,179 +2989,181 @@
         <v>80</v>
       </c>
       <c r="J29">
+        <v>80</v>
+      </c>
+      <c r="K29">
+        <v>80</v>
+      </c>
+      <c r="L29">
         <v>100</v>
       </c>
-      <c r="K29">
-        <v>50</v>
-      </c>
-      <c r="L29" s="1">
+      <c r="M29">
+        <v>50</v>
+      </c>
+      <c r="N29" s="1">
         <v>80</v>
       </c>
-      <c r="M29" s="1">
+      <c r="O29" s="1">
         <v>80</v>
       </c>
-      <c r="N29" s="1">
-        <v>50</v>
-      </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="1">
         <v>0</v>
       </c>
-      <c r="P29" s="1">
+      <c r="R29" s="1">
         <v>80</v>
       </c>
-      <c r="Q29" s="1">
-        <v>50</v>
-      </c>
-      <c r="R29" s="1">
+      <c r="S29" s="1">
+        <v>50</v>
+      </c>
+      <c r="T29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="1">
+      <c r="U29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="E30">
-        <f t="shared" ref="E30" si="0">SUM(E27:E29)/3</f>
-        <v>50</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ref="F30" si="1">SUM(F27:F29)/3</f>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f t="shared" ref="G30" si="0">SUM(G27:G29)/3</f>
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30" si="1">SUM(H27:H29)/3</f>
         <v>70</v>
       </c>
-      <c r="G30">
-        <f t="shared" ref="G30" si="2">SUM(G27:G29)/3</f>
+      <c r="I30">
+        <f t="shared" ref="I30" si="2">SUM(I27:I29)/3</f>
         <v>76.666666666666671</v>
       </c>
-      <c r="H30">
-        <f t="shared" ref="H30" si="3">SUM(H27:H29)/3</f>
+      <c r="J30">
+        <f t="shared" ref="J30" si="3">SUM(J27:J29)/3</f>
         <v>70</v>
       </c>
-      <c r="I30">
-        <f t="shared" ref="I30" si="4">SUM(I27:I29)/3</f>
+      <c r="K30">
+        <f t="shared" ref="K30" si="4">SUM(K27:K29)/3</f>
         <v>70</v>
       </c>
-      <c r="J30">
-        <f t="shared" ref="J30" si="5">SUM(J27:J29)/3</f>
+      <c r="L30">
+        <f t="shared" ref="L30" si="5">SUM(L27:L29)/3</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="K30">
-        <f t="shared" ref="K30" si="6">SUM(K27:K29)/3</f>
-        <v>50</v>
-      </c>
-      <c r="L30">
-        <f t="shared" ref="L30" si="7">SUM(L27:L29)/3</f>
+      <c r="M30">
+        <f t="shared" ref="M30" si="6">SUM(M27:M29)/3</f>
+        <v>50</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30" si="7">SUM(N27:N29)/3</f>
         <v>43.333333333333336</v>
       </c>
-      <c r="M30">
-        <f t="shared" ref="M30" si="8">SUM(M27:M29)/3</f>
+      <c r="O30">
+        <f t="shared" ref="O30" si="8">SUM(O27:O29)/3</f>
         <v>43.333333333333336</v>
       </c>
-      <c r="N30">
-        <f t="shared" ref="N30" si="9">SUM(N27:N29)/3</f>
-        <v>50</v>
-      </c>
-      <c r="O30">
-        <f t="shared" ref="O30" si="10">SUM(O27:O29)/3</f>
+      <c r="P30">
+        <f t="shared" ref="P30" si="9">SUM(P27:P29)/3</f>
+        <v>50</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30" si="10">SUM(Q27:Q29)/3</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="P30">
-        <f t="shared" ref="P30" si="11">SUM(P27:P29)/3</f>
+      <c r="R30">
+        <f t="shared" ref="R30" si="11">SUM(R27:R29)/3</f>
         <v>43.333333333333336</v>
       </c>
-      <c r="Q30">
-        <f t="shared" ref="Q30" si="12">SUM(Q27:Q29)/3</f>
+      <c r="S30">
+        <f t="shared" ref="S30" si="12">SUM(S27:S29)/3</f>
         <v>30</v>
       </c>
-      <c r="R30">
-        <f t="shared" ref="R30" si="13">SUM(R27:R29)/3</f>
+      <c r="T30">
+        <f t="shared" ref="T30" si="13">SUM(T27:T29)/3</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="S30">
-        <f>SUM(S27:S29)/3</f>
+      <c r="U30">
+        <f>SUM(U27:U29)/3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="E31">
-        <f>E30/SUM($E$30:$S$30)</f>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f>G30/SUM($G$30:$U$30)</f>
         <v>6.8493150684931503E-2</v>
       </c>
-      <c r="F31">
-        <f t="shared" ref="F31:Q31" si="14">F30/SUM($E$30:$S$30)</f>
+      <c r="H31">
+        <f>H30/SUM($G$30:$U$30)</f>
         <v>9.589041095890409E-2</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="14"/>
+      <c r="I31">
+        <f>I30/SUM($G$30:$U$30)</f>
         <v>0.1050228310502283</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="14"/>
+      <c r="J31">
+        <f>J30/SUM($G$30:$U$30)</f>
         <v>9.589041095890409E-2</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="14"/>
+      <c r="K31">
+        <f>K30/SUM($G$30:$U$30)</f>
         <v>9.589041095890409E-2</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="14"/>
+      <c r="L31">
+        <f>L30/SUM($G$30:$U$30)</f>
         <v>0.11415525114155249</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="14"/>
+      <c r="M31">
+        <f>M30/SUM($G$30:$U$30)</f>
         <v>6.8493150684931503E-2</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="14"/>
+      <c r="N31">
+        <f>N30/SUM($G$30:$U$30)</f>
         <v>5.9360730593607303E-2</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="14"/>
+      <c r="O31">
+        <f>O30/SUM($G$30:$U$30)</f>
         <v>5.9360730593607303E-2</v>
       </c>
-      <c r="N31">
-        <f t="shared" si="14"/>
+      <c r="P31">
+        <f>P30/SUM($G$30:$U$30)</f>
         <v>6.8493150684931503E-2</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="14"/>
+      <c r="Q31">
+        <f>Q30/SUM($G$30:$U$30)</f>
         <v>4.5662100456621002E-2</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="14"/>
+      <c r="R31">
+        <f>R30/SUM($G$30:$U$30)</f>
         <v>5.9360730593607303E-2</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="14"/>
+      <c r="S31">
+        <f>S30/SUM($G$30:$U$30)</f>
         <v>4.1095890410958895E-2</v>
       </c>
-      <c r="R31">
-        <f>R30/SUM($E$30:$S$30)</f>
+      <c r="T31">
+        <f>T30/SUM($G$30:$U$30)</f>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="S31">
-        <f t="shared" ref="S31" si="15">S30/SUM($E$30:$S$30)</f>
+      <c r="U31">
+        <f>U30/SUM($G$30:$U$30)</f>
         <v>0</v>
       </c>
-      <c r="T31">
-        <f>SUM(E31:S31)</f>
+      <c r="V31">
+        <f>SUM(G31:U31)</f>
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C35" s="3" t="s">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+    <row r="36" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
         <v>29</v>
       </c>
-      <c r="E36">
-        <v>50</v>
-      </c>
-      <c r="F36">
-        <v>50</v>
-      </c>
       <c r="G36">
         <v>50</v>
       </c>
@@ -2983,58 +3180,58 @@
         <v>50</v>
       </c>
       <c r="L36">
+        <v>50</v>
+      </c>
+      <c r="M36">
+        <v>50</v>
+      </c>
+      <c r="N36">
         <v>0</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>0</v>
       </c>
-      <c r="N36">
-        <v>50</v>
-      </c>
-      <c r="O36">
+      <c r="P36">
+        <v>50</v>
+      </c>
+      <c r="Q36">
         <v>100</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>0</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>20</v>
       </c>
-      <c r="R36">
-        <v>50</v>
-      </c>
-      <c r="S36">
+      <c r="T36">
+        <v>50</v>
+      </c>
+      <c r="U36">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    <row r="37" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
         <v>28</v>
       </c>
-      <c r="E37">
-        <v>50</v>
-      </c>
-      <c r="F37">
-        <v>80</v>
-      </c>
       <c r="G37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H37">
         <v>80</v>
       </c>
       <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
         <v>80</v>
       </c>
-      <c r="J37">
+      <c r="K37">
+        <v>80</v>
+      </c>
+      <c r="L37">
         <v>100</v>
       </c>
-      <c r="K37">
-        <v>50</v>
-      </c>
-      <c r="L37">
-        <v>50</v>
-      </c>
       <c r="M37">
         <v>50</v>
       </c>
@@ -3042,33 +3239,33 @@
         <v>50</v>
       </c>
       <c r="O37">
+        <v>50</v>
+      </c>
+      <c r="P37">
+        <v>50</v>
+      </c>
+      <c r="Q37">
         <v>0</v>
       </c>
-      <c r="P37">
-        <v>50</v>
-      </c>
-      <c r="Q37">
+      <c r="R37">
+        <v>50</v>
+      </c>
+      <c r="S37">
         <v>20</v>
       </c>
-      <c r="R37">
+      <c r="T37">
         <v>0</v>
       </c>
-      <c r="S37">
+      <c r="U37">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+    <row r="38" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
         <v>26</v>
       </c>
-      <c r="E38">
-        <v>50</v>
-      </c>
-      <c r="F38">
-        <v>80</v>
-      </c>
       <c r="G38">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H38">
         <v>80</v>
@@ -3077,161 +3274,167 @@
         <v>80</v>
       </c>
       <c r="J38">
+        <v>80</v>
+      </c>
+      <c r="K38">
+        <v>80</v>
+      </c>
+      <c r="L38">
         <v>100</v>
       </c>
-      <c r="K38">
-        <v>50</v>
-      </c>
-      <c r="L38" s="1">
+      <c r="M38">
+        <v>50</v>
+      </c>
+      <c r="N38" s="1">
         <v>80</v>
       </c>
-      <c r="M38" s="1">
+      <c r="O38" s="1">
         <v>80</v>
       </c>
-      <c r="N38" s="1">
-        <v>50</v>
-      </c>
-      <c r="O38" s="1">
+      <c r="P38" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="1">
         <v>0</v>
       </c>
-      <c r="P38" s="1">
+      <c r="R38" s="1">
         <v>80</v>
       </c>
-      <c r="Q38" s="1">
-        <v>50</v>
-      </c>
-      <c r="R38" s="1">
+      <c r="S38" s="1">
+        <v>50</v>
+      </c>
+      <c r="T38" s="1">
         <v>0</v>
       </c>
-      <c r="S38" s="1">
+      <c r="U38" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E39">
-        <f t="shared" ref="E39" si="16">SUM(E36:E38)/3</f>
-        <v>50</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ref="F39" si="17">SUM(F36:F38)/3</f>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <f t="shared" ref="G39" si="14">SUM(G36:G38)/3</f>
+        <v>50</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39" si="15">SUM(H36:H38)/3</f>
         <v>70</v>
       </c>
-      <c r="G39">
-        <f t="shared" ref="G39" si="18">SUM(G36:G38)/3</f>
+      <c r="I39">
+        <f t="shared" ref="I39" si="16">SUM(I36:I38)/3</f>
         <v>76.666666666666671</v>
       </c>
-      <c r="H39">
-        <f t="shared" ref="H39" si="19">SUM(H36:H38)/3</f>
+      <c r="J39">
+        <f t="shared" ref="J39" si="17">SUM(J36:J38)/3</f>
         <v>70</v>
       </c>
-      <c r="I39">
-        <f t="shared" ref="I39" si="20">SUM(I36:I38)/3</f>
+      <c r="K39">
+        <f t="shared" ref="K39" si="18">SUM(K36:K38)/3</f>
         <v>70</v>
       </c>
-      <c r="J39">
-        <f t="shared" ref="J39" si="21">SUM(J36:J38)/3</f>
+      <c r="L39">
+        <f t="shared" ref="L39" si="19">SUM(L36:L38)/3</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="K39">
-        <f t="shared" ref="K39" si="22">SUM(K36:K38)/3</f>
-        <v>50</v>
-      </c>
-      <c r="L39">
-        <f t="shared" ref="L39" si="23">SUM(L36:L38)/3</f>
+      <c r="M39">
+        <f t="shared" ref="M39" si="20">SUM(M36:M38)/3</f>
+        <v>50</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39" si="21">SUM(N36:N38)/3</f>
         <v>43.333333333333336</v>
       </c>
-      <c r="M39">
-        <f t="shared" ref="M39" si="24">SUM(M36:M38)/3</f>
+      <c r="O39">
+        <f t="shared" ref="O39" si="22">SUM(O36:O38)/3</f>
         <v>43.333333333333336</v>
       </c>
-      <c r="N39">
-        <f t="shared" ref="N39" si="25">SUM(N36:N38)/3</f>
-        <v>50</v>
-      </c>
-      <c r="O39">
-        <f t="shared" ref="O39" si="26">SUM(O36:O38)/3</f>
+      <c r="P39">
+        <f t="shared" ref="P39" si="23">SUM(P36:P38)/3</f>
+        <v>50</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ref="Q39" si="24">SUM(Q36:Q38)/3</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="P39">
-        <f t="shared" ref="P39" si="27">SUM(P36:P38)/3</f>
+      <c r="R39">
+        <f t="shared" ref="R39" si="25">SUM(R36:R38)/3</f>
         <v>43.333333333333336</v>
       </c>
-      <c r="Q39">
-        <f t="shared" ref="Q39" si="28">SUM(Q36:Q38)/3</f>
+      <c r="S39">
+        <f t="shared" ref="S39" si="26">SUM(S36:S38)/3</f>
         <v>30</v>
       </c>
-      <c r="R39">
-        <f t="shared" ref="R39" si="29">SUM(R36:R38)/3</f>
+      <c r="T39">
+        <f t="shared" ref="T39" si="27">SUM(T36:T38)/3</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="S39">
-        <f>SUM(S36:S38)/3</f>
+      <c r="U39">
+        <f>SUM(U36:U38)/3</f>
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E40">
-        <f>E39/SUM($E$39:$S$39)</f>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <f>G39/SUM($G$39:$U$39)</f>
         <v>6.0240963855421679E-2</v>
       </c>
-      <c r="F40">
-        <f t="shared" ref="F40:R40" si="30">F39/SUM($E$39:$S$39)</f>
+      <c r="H40">
+        <f>H39/SUM($G$39:$U$39)</f>
         <v>8.4337349397590355E-2</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="30"/>
+      <c r="I40">
+        <f>I39/SUM($G$39:$U$39)</f>
         <v>9.2369477911646583E-2</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="30"/>
+      <c r="J40">
+        <f>J39/SUM($G$39:$U$39)</f>
         <v>8.4337349397590355E-2</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="30"/>
+      <c r="K40">
+        <f>K39/SUM($G$39:$U$39)</f>
         <v>8.4337349397590355E-2</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="30"/>
+      <c r="L40">
+        <f>L39/SUM($G$39:$U$39)</f>
         <v>0.1004016064257028</v>
       </c>
-      <c r="K40">
-        <f t="shared" si="30"/>
+      <c r="M40">
+        <f>M39/SUM($G$39:$U$39)</f>
         <v>6.0240963855421679E-2</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="30"/>
+      <c r="N40">
+        <f>N39/SUM($G$39:$U$39)</f>
         <v>5.2208835341365459E-2</v>
       </c>
-      <c r="M40">
-        <f t="shared" si="30"/>
+      <c r="O40">
+        <f>O39/SUM($G$39:$U$39)</f>
         <v>5.2208835341365459E-2</v>
       </c>
-      <c r="N40">
-        <f t="shared" si="30"/>
+      <c r="P40">
+        <f>P39/SUM($G$39:$U$39)</f>
         <v>6.0240963855421679E-2</v>
       </c>
-      <c r="O40">
-        <f t="shared" si="30"/>
+      <c r="Q40">
+        <f>Q39/SUM($G$39:$U$39)</f>
         <v>4.0160642570281124E-2</v>
       </c>
-      <c r="P40">
-        <f t="shared" si="30"/>
+      <c r="R40">
+        <f>R39/SUM($G$39:$U$39)</f>
         <v>5.2208835341365459E-2</v>
       </c>
-      <c r="Q40">
-        <f t="shared" si="30"/>
+      <c r="S40">
+        <f>S39/SUM($G$39:$U$39)</f>
         <v>3.614457831325301E-2</v>
       </c>
-      <c r="R40">
-        <f>R39/SUM($E$39:$S$39)</f>
+      <c r="T40">
+        <f>T39/SUM($G$39:$U$39)</f>
         <v>2.0080321285140562E-2</v>
       </c>
-      <c r="S40">
-        <f>S39/SUM($E$39:$S$39)</f>
+      <c r="U40">
+        <f>U39/SUM($G$39:$U$39)</f>
         <v>0.12048192771084336</v>
       </c>
-      <c r="T40">
-        <f>SUM(E40:S40)</f>
+      <c r="V40">
+        <f>SUM(G40:U40)</f>
         <v>0.99999999999999978</v>
       </c>
     </row>

--- a/prioritization/rankings-of-compiled-circuits.xlsx
+++ b/prioritization/rankings-of-compiled-circuits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariesalm/Documents/PlanQK/Code/nisq-analyzer-content/prioritization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E4F028-4EF6-A140-93CE-41C52D7A719A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69033E74-E0FD-474F-83EC-8BAF279E76ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8740" yWindow="29300" windowWidth="33600" windowHeight="20500" xr2:uid="{9395AFE9-CE9B-DA4A-ACC0-E0A9EA3F737D}"/>
   </bookViews>
@@ -711,14 +711,14 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="8" width="12.1640625" customWidth="1"/>
@@ -3089,63 +3089,63 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="G31">
-        <f>G30/SUM($G$30:$U$30)</f>
+        <f t="shared" ref="G31:U31" si="14">G30/SUM($G$30:$U$30)</f>
         <v>6.8493150684931503E-2</v>
       </c>
       <c r="H31">
-        <f>H30/SUM($G$30:$U$30)</f>
+        <f t="shared" si="14"/>
         <v>9.589041095890409E-2</v>
       </c>
       <c r="I31">
-        <f>I30/SUM($G$30:$U$30)</f>
+        <f t="shared" si="14"/>
         <v>0.1050228310502283</v>
       </c>
       <c r="J31">
-        <f>J30/SUM($G$30:$U$30)</f>
+        <f t="shared" si="14"/>
         <v>9.589041095890409E-2</v>
       </c>
       <c r="K31">
-        <f>K30/SUM($G$30:$U$30)</f>
+        <f t="shared" si="14"/>
         <v>9.589041095890409E-2</v>
       </c>
       <c r="L31">
-        <f>L30/SUM($G$30:$U$30)</f>
+        <f t="shared" si="14"/>
         <v>0.11415525114155249</v>
       </c>
       <c r="M31">
-        <f>M30/SUM($G$30:$U$30)</f>
+        <f t="shared" si="14"/>
         <v>6.8493150684931503E-2</v>
       </c>
       <c r="N31">
-        <f>N30/SUM($G$30:$U$30)</f>
+        <f t="shared" si="14"/>
         <v>5.9360730593607303E-2</v>
       </c>
       <c r="O31">
-        <f>O30/SUM($G$30:$U$30)</f>
+        <f t="shared" si="14"/>
         <v>5.9360730593607303E-2</v>
       </c>
       <c r="P31">
-        <f>P30/SUM($G$30:$U$30)</f>
+        <f t="shared" si="14"/>
         <v>6.8493150684931503E-2</v>
       </c>
       <c r="Q31">
-        <f>Q30/SUM($G$30:$U$30)</f>
+        <f t="shared" si="14"/>
         <v>4.5662100456621002E-2</v>
       </c>
       <c r="R31">
-        <f>R30/SUM($G$30:$U$30)</f>
+        <f t="shared" si="14"/>
         <v>5.9360730593607303E-2</v>
       </c>
       <c r="S31">
-        <f>S30/SUM($G$30:$U$30)</f>
+        <f t="shared" si="14"/>
         <v>4.1095890410958895E-2</v>
       </c>
       <c r="T31">
-        <f>T30/SUM($G$30:$U$30)</f>
+        <f t="shared" si="14"/>
         <v>2.2831050228310501E-2</v>
       </c>
       <c r="U31">
-        <f>U30/SUM($G$30:$U$30)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V31">
@@ -3312,59 +3312,59 @@
     </row>
     <row r="39" spans="3:22" x14ac:dyDescent="0.2">
       <c r="G39">
-        <f t="shared" ref="G39" si="14">SUM(G36:G38)/3</f>
+        <f t="shared" ref="G39" si="15">SUM(G36:G38)/3</f>
         <v>50</v>
       </c>
       <c r="H39">
-        <f t="shared" ref="H39" si="15">SUM(H36:H38)/3</f>
+        <f t="shared" ref="H39" si="16">SUM(H36:H38)/3</f>
         <v>70</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="I39" si="16">SUM(I36:I38)/3</f>
+        <f t="shared" ref="I39" si="17">SUM(I36:I38)/3</f>
         <v>76.666666666666671</v>
       </c>
       <c r="J39">
-        <f t="shared" ref="J39" si="17">SUM(J36:J38)/3</f>
+        <f t="shared" ref="J39" si="18">SUM(J36:J38)/3</f>
         <v>70</v>
       </c>
       <c r="K39">
-        <f t="shared" ref="K39" si="18">SUM(K36:K38)/3</f>
+        <f t="shared" ref="K39" si="19">SUM(K36:K38)/3</f>
         <v>70</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39" si="19">SUM(L36:L38)/3</f>
+        <f t="shared" ref="L39" si="20">SUM(L36:L38)/3</f>
         <v>83.333333333333329</v>
       </c>
       <c r="M39">
-        <f t="shared" ref="M39" si="20">SUM(M36:M38)/3</f>
+        <f t="shared" ref="M39" si="21">SUM(M36:M38)/3</f>
         <v>50</v>
       </c>
       <c r="N39">
-        <f t="shared" ref="N39" si="21">SUM(N36:N38)/3</f>
+        <f t="shared" ref="N39" si="22">SUM(N36:N38)/3</f>
         <v>43.333333333333336</v>
       </c>
       <c r="O39">
-        <f t="shared" ref="O39" si="22">SUM(O36:O38)/3</f>
+        <f t="shared" ref="O39" si="23">SUM(O36:O38)/3</f>
         <v>43.333333333333336</v>
       </c>
       <c r="P39">
-        <f t="shared" ref="P39" si="23">SUM(P36:P38)/3</f>
+        <f t="shared" ref="P39" si="24">SUM(P36:P38)/3</f>
         <v>50</v>
       </c>
       <c r="Q39">
-        <f t="shared" ref="Q39" si="24">SUM(Q36:Q38)/3</f>
+        <f t="shared" ref="Q39" si="25">SUM(Q36:Q38)/3</f>
         <v>33.333333333333336</v>
       </c>
       <c r="R39">
-        <f t="shared" ref="R39" si="25">SUM(R36:R38)/3</f>
+        <f t="shared" ref="R39" si="26">SUM(R36:R38)/3</f>
         <v>43.333333333333336</v>
       </c>
       <c r="S39">
-        <f t="shared" ref="S39" si="26">SUM(S36:S38)/3</f>
+        <f t="shared" ref="S39" si="27">SUM(S36:S38)/3</f>
         <v>30</v>
       </c>
       <c r="T39">
-        <f t="shared" ref="T39" si="27">SUM(T36:T38)/3</f>
+        <f t="shared" ref="T39" si="28">SUM(T36:T38)/3</f>
         <v>16.666666666666668</v>
       </c>
       <c r="U39">
@@ -3374,63 +3374,63 @@
     </row>
     <row r="40" spans="3:22" x14ac:dyDescent="0.2">
       <c r="G40">
-        <f>G39/SUM($G$39:$U$39)</f>
+        <f t="shared" ref="G40:U40" si="29">G39/SUM($G$39:$U$39)</f>
         <v>6.0240963855421679E-2</v>
       </c>
       <c r="H40">
-        <f>H39/SUM($G$39:$U$39)</f>
+        <f t="shared" si="29"/>
         <v>8.4337349397590355E-2</v>
       </c>
       <c r="I40">
-        <f>I39/SUM($G$39:$U$39)</f>
+        <f t="shared" si="29"/>
         <v>9.2369477911646583E-2</v>
       </c>
       <c r="J40">
-        <f>J39/SUM($G$39:$U$39)</f>
+        <f t="shared" si="29"/>
         <v>8.4337349397590355E-2</v>
       </c>
       <c r="K40">
-        <f>K39/SUM($G$39:$U$39)</f>
+        <f t="shared" si="29"/>
         <v>8.4337349397590355E-2</v>
       </c>
       <c r="L40">
-        <f>L39/SUM($G$39:$U$39)</f>
+        <f t="shared" si="29"/>
         <v>0.1004016064257028</v>
       </c>
       <c r="M40">
-        <f>M39/SUM($G$39:$U$39)</f>
+        <f t="shared" si="29"/>
         <v>6.0240963855421679E-2</v>
       </c>
       <c r="N40">
-        <f>N39/SUM($G$39:$U$39)</f>
+        <f t="shared" si="29"/>
         <v>5.2208835341365459E-2</v>
       </c>
       <c r="O40">
-        <f>O39/SUM($G$39:$U$39)</f>
+        <f t="shared" si="29"/>
         <v>5.2208835341365459E-2</v>
       </c>
       <c r="P40">
-        <f>P39/SUM($G$39:$U$39)</f>
+        <f t="shared" si="29"/>
         <v>6.0240963855421679E-2</v>
       </c>
       <c r="Q40">
-        <f>Q39/SUM($G$39:$U$39)</f>
+        <f t="shared" si="29"/>
         <v>4.0160642570281124E-2</v>
       </c>
       <c r="R40">
-        <f>R39/SUM($G$39:$U$39)</f>
+        <f t="shared" si="29"/>
         <v>5.2208835341365459E-2</v>
       </c>
       <c r="S40">
-        <f>S39/SUM($G$39:$U$39)</f>
+        <f t="shared" si="29"/>
         <v>3.614457831325301E-2</v>
       </c>
       <c r="T40">
-        <f>T39/SUM($G$39:$U$39)</f>
+        <f t="shared" si="29"/>
         <v>2.0080321285140562E-2</v>
       </c>
       <c r="U40">
-        <f>U39/SUM($G$39:$U$39)</f>
+        <f t="shared" si="29"/>
         <v>0.12048192771084336</v>
       </c>
       <c r="V40">

--- a/prioritization/rankings-of-compiled-circuits.xlsx
+++ b/prioritization/rankings-of-compiled-circuits.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariesalm/Documents/PlanQK/Code/nisq-analyzer-content/prioritization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69033E74-E0FD-474F-83EC-8BAF279E76ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1898D75E-B13F-404F-B82E-5039D2D59C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8740" yWindow="29300" windowWidth="33600" windowHeight="20500" xr2:uid="{9395AFE9-CE9B-DA4A-ACC0-E0A9EA3F737D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
   <si>
     <t>qpu name</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>bv-00110</t>
-  </si>
-  <si>
-    <t>99999.0</t>
   </si>
   <si>
     <t>TOP-C-Q-50</t>
@@ -708,10 +705,10 @@
   <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -810,34 +807,34 @@
         <v>17</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -851,7 +848,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>8192</v>
@@ -895,11 +892,11 @@
       <c r="R2" s="1">
         <v>0</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>30</v>
+      <c r="S2" s="1">
+        <v>99999</v>
+      </c>
+      <c r="T2" s="1">
+        <v>99999</v>
       </c>
       <c r="U2">
         <v>2</v>
@@ -946,7 +943,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>8192</v>
@@ -1041,7 +1038,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>8192</v>
@@ -1136,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>8192</v>
@@ -1231,7 +1228,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>8192</v>
@@ -1326,7 +1323,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>8192</v>
@@ -1421,7 +1418,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>8192</v>
@@ -1516,7 +1513,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>8192</v>
@@ -1560,11 +1557,11 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>30</v>
+      <c r="S9" s="1">
+        <v>99999</v>
+      </c>
+      <c r="T9" s="1">
+        <v>99999</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1611,7 +1608,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>8192</v>
@@ -1706,7 +1703,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>8192</v>
@@ -1801,7 +1798,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>8192</v>
@@ -1896,7 +1893,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>8192</v>
@@ -1991,7 +1988,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>8192</v>
@@ -2086,7 +2083,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>8192</v>
@@ -2181,7 +2178,7 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>8192</v>
@@ -2225,11 +2222,11 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>30</v>
+      <c r="S16" s="1">
+        <v>99999</v>
+      </c>
+      <c r="T16" s="1">
+        <v>99999</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -2276,7 +2273,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>8192</v>
@@ -2371,7 +2368,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>8192</v>
@@ -2466,7 +2463,7 @@
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>8192</v>
@@ -2561,7 +2558,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>8192</v>
@@ -2656,7 +2653,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>8192</v>
@@ -2751,7 +2748,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>8192</v>
@@ -3157,7 +3154,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="3:22" x14ac:dyDescent="0.2">
